--- a/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
+++ b/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\05_用紙出庫伝票\tbx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DFAB78-A980-4D8A-9E01-443302750188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A16895B-22DF-4EBE-9E7D-C6AC2E947686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tbx項目" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="61">
   <si>
     <t>###</t>
   </si>
@@ -230,6 +230,31 @@
   </si>
   <si>
     <t>文字列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝票サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>デンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝票部数</t>
+    <rPh sb="0" eb="2">
+      <t>デンヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -555,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13:Z17"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -657,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B33" si="0">A5</f>
+        <f t="shared" ref="B5:B35" si="0">A5</f>
         <v>発注日</v>
       </c>
       <c r="C5" t="s">
@@ -724,11 +749,11 @@
         <v>0</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" ref="Y5:Y32" si="1">"var "&amp;C5&amp;"  { &amp;G"&amp;B5&amp;" }"</f>
+        <f t="shared" ref="Y5:Y34" si="1">"var "&amp;C5&amp;"  { &amp;G"&amp;B5&amp;" }"</f>
         <v>var 日時  { &amp;G発注日 }</v>
       </c>
       <c r="Z5" t="str">
-        <f t="shared" ref="Z5:Z32" si="2">"&amp;G"&amp;B5&amp;" = """""</f>
+        <f t="shared" ref="Z5:Z34" si="2">"&amp;G"&amp;B5&amp;" = """""</f>
         <v>&amp;G発注日 = ""</v>
       </c>
     </row>
@@ -1214,173 +1239,54 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>作業日</v>
+        <v>伝票部数</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>8</v>
-      </c>
-      <c r="O12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12">
-        <v>37</v>
-      </c>
-      <c r="U12">
-        <v>-1</v>
-      </c>
-      <c r="V12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="1"/>
-        <v>var 日時  { &amp;G作業日 }</v>
+        <v>var 数値  { &amp;G伝票部数 }</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="2"/>
-        <v>&amp;G作業日 = ""</v>
+        <v>&amp;G伝票部数 = ""</v>
       </c>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>機械名</v>
+        <v>伝票サイズ</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <v>9</v>
-      </c>
-      <c r="N13">
-        <v>9</v>
-      </c>
-      <c r="O13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T13">
-        <v>37</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>16</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;G機械名 }</v>
+        <v>var 文字列  { &amp;G伝票サイズ }</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="2"/>
-        <v>&amp;G機械名 = ""</v>
+        <v>&amp;G伝票サイズ = ""</v>
       </c>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>作業日</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1407,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" t="s">
         <v>10</v>
@@ -1434,29 +1340,30 @@
         <v>37</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;Gロス要因1顧客 }</v>
+        <v>var 日時  { &amp;G作業日 }</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="2"/>
-        <v>&amp;Gロス要因1顧客 = ""</v>
+        <v>&amp;G作業日 = ""</v>
       </c>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>機械名</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1486,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O15" t="s">
         <v>10</v>
@@ -1523,19 +1430,19 @@
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;Gロス要因2自部署 }</v>
+        <v>var 文字列  { &amp;G機械名 }</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="2"/>
-        <v>&amp;Gロス要因2自部署 = ""</v>
+        <v>&amp;G機械名 = ""</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1565,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O16" t="s">
         <v>10</v>
@@ -1602,19 +1509,19 @@
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;Gロス要因3他部署 }</v>
+        <v>var 文字列  { &amp;Gロス要因1顧客 }</v>
       </c>
       <c r="Z16" t="str">
         <f t="shared" si="2"/>
-        <v>&amp;Gロス要因3他部署 = ""</v>
+        <v>&amp;Gロス要因1顧客 = ""</v>
       </c>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1644,13 +1551,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O17" t="s">
         <v>10</v>
@@ -1681,1159 +1588,1317 @@
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;Gロス要因4開発破損 }</v>
+        <v>var 文字列  { &amp;Gロス要因2自部署 }</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="2"/>
-        <v>&amp;Gロス要因4開発破損 = ""</v>
+        <v>&amp;Gロス要因2自部署 = ""</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>12</v>
+      </c>
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18">
+        <v>37</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="1"/>
+        <v>var 文字列  { &amp;Gロス要因3他部署 }</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp;Gロス要因3他部署 = ""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>37</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="1"/>
+        <v>var 文字列  { &amp;Gロス要因4開発破損 }</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp;Gロス要因4開発破損 = ""</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>用紙ID</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
         <v>6</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>14</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>14</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <v>14</v>
       </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>11</v>
-      </c>
-      <c r="T18">
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20">
         <v>34</v>
       </c>
-      <c r="U18">
+      <c r="U20">
         <v>-1</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V20" t="s">
         <v>12</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="str">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G用紙ID }</v>
       </c>
-      <c r="Z18" t="str">
+      <c r="Z20" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G用紙ID = ""</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" t="s">
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>銘柄</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
         <v>6</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>15</v>
       </c>
-      <c r="M19">
+      <c r="M21">
         <v>15</v>
       </c>
-      <c r="N19">
+      <c r="N21">
         <v>15</v>
       </c>
-      <c r="O19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19">
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21">
         <v>34</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
         <v>16</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="str">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G銘柄 }</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="Z21" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G銘柄 = ""</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" t="s">
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>紙色</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
         <v>6</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>16</v>
       </c>
-      <c r="M20">
+      <c r="M22">
         <v>16</v>
       </c>
-      <c r="N20">
+      <c r="N22">
         <v>16</v>
       </c>
-      <c r="O20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20">
+      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22">
         <v>34</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
         <v>16</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="str">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G紙色 }</v>
       </c>
-      <c r="Z20" t="str">
+      <c r="Z22" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G紙色 = ""</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
-      <c r="A21" t="s">
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>サイズ</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
         <v>6</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>17</v>
       </c>
-      <c r="M21">
+      <c r="M23">
         <v>17</v>
       </c>
-      <c r="N21">
+      <c r="N23">
         <v>17</v>
       </c>
-      <c r="O21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>11</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21">
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23">
         <v>34</v>
       </c>
-      <c r="U21">
+      <c r="U23">
         <v>-1</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V23" t="s">
         <v>12</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="str">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;Gサイズ }</v>
       </c>
-      <c r="Z21" t="str">
+      <c r="Z23" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gサイズ = ""</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
-      <c r="A22" t="s">
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>サイズ名</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="Y22" t="str">
+      <c r="Y24" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;Gサイズ名 }</v>
       </c>
-      <c r="Z22" t="str">
+      <c r="Z24" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gサイズ名 = ""</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23" t="s">
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>TY</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
         <v>6</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>18</v>
       </c>
-      <c r="M23">
+      <c r="M25">
         <v>18</v>
       </c>
-      <c r="N23">
+      <c r="N25">
         <v>18</v>
       </c>
-      <c r="O23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>11</v>
-      </c>
-      <c r="T23">
+      <c r="O25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>11</v>
+      </c>
+      <c r="T25">
         <v>34</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
         <v>16</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="str">
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;GTY }</v>
       </c>
-      <c r="Z23" t="str">
+      <c r="Z25" t="str">
         <f t="shared" si="2"/>
         <v>&amp;GTY = ""</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
-      <c r="A24" t="s">
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>重さ</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
         <v>6</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>19</v>
       </c>
-      <c r="M24">
+      <c r="M26">
         <v>19</v>
       </c>
-      <c r="N24">
+      <c r="N26">
         <v>19</v>
       </c>
-      <c r="O24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24">
+      <c r="O26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26">
         <v>34</v>
       </c>
-      <c r="U24">
+      <c r="U26">
         <v>-1</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V26" t="s">
         <v>12</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="str">
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G重さ }</v>
       </c>
-      <c r="Z24" t="str">
+      <c r="Z26" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G重さ = ""</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
-      <c r="A25" t="s">
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ作業ID</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
         <v>6</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>20</v>
       </c>
-      <c r="M25">
+      <c r="M27">
         <v>20</v>
       </c>
-      <c r="N25">
+      <c r="N27">
         <v>20</v>
       </c>
-      <c r="O25" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>11</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>11</v>
-      </c>
-      <c r="T25" t="s">
+      <c r="O27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>11</v>
+      </c>
+      <c r="T27" t="s">
         <v>34</v>
       </c>
-      <c r="U25">
+      <c r="U27">
         <v>-1</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V27" t="s">
         <v>12</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="str">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁サイズ作業ID }</v>
       </c>
-      <c r="Z25" t="str">
+      <c r="Z27" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ作業ID = ""</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" t="s">
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ名称ID</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
         <v>6</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>21</v>
       </c>
-      <c r="M26">
+      <c r="M28">
         <v>21</v>
       </c>
-      <c r="N26">
+      <c r="N28">
         <v>21</v>
       </c>
-      <c r="O26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="O28" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" t="s">
         <v>34</v>
       </c>
-      <c r="U26">
+      <c r="U28">
         <v>-1</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V28" t="s">
         <v>12</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="str">
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁サイズ名称ID }</v>
       </c>
-      <c r="Z26" t="str">
+      <c r="Z28" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ名称ID = ""</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" t="s">
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ名</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
         <v>6</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>22</v>
       </c>
-      <c r="M27">
+      <c r="M29">
         <v>22</v>
       </c>
-      <c r="N27">
+      <c r="N29">
         <v>22</v>
       </c>
-      <c r="O27" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>11</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="O29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" t="s">
         <v>34</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
         <v>16</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="str">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G断裁サイズ名 }</v>
       </c>
-      <c r="Z27" t="str">
+      <c r="Z29" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ名 = ""</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
-      <c r="A28" t="s">
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>断裁縦横</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
         <v>6</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>23</v>
       </c>
-      <c r="M28">
+      <c r="M30">
         <v>23</v>
       </c>
-      <c r="N28">
+      <c r="N30">
         <v>23</v>
       </c>
-      <c r="O28" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>11</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="O30" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" t="s">
         <v>34</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
         <v>16</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="str">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G断裁縦横 }</v>
       </c>
-      <c r="Z28" t="str">
+      <c r="Z30" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁縦横 = ""</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
-      <c r="A29" t="s">
+    <row r="31" spans="1:26">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>53</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
         <v>6</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>24</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>24</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>24</v>
       </c>
-      <c r="O29" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>11</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="O31" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" t="s">
         <v>34</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>-1</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V31" t="s">
         <v>12</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="str">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数定数 }</v>
       </c>
-      <c r="Z29" t="str">
+      <c r="Z31" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数定数 = ""</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
-      <c r="A30" t="s">
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>54</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
         <v>6</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>25</v>
       </c>
-      <c r="M30">
+      <c r="M32">
         <v>25</v>
       </c>
-      <c r="N30">
+      <c r="N32">
         <v>25</v>
       </c>
-      <c r="O30" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>11</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="O32" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>11</v>
+      </c>
+      <c r="T32" t="s">
         <v>34</v>
       </c>
-      <c r="U30">
+      <c r="U32">
         <v>-1</v>
       </c>
-      <c r="V30" t="s">
+      <c r="V32" t="s">
         <v>12</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="str">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数予備 }</v>
       </c>
-      <c r="Z30" t="str">
+      <c r="Z32" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数予備 = ""</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
-      <c r="A31" t="s">
+    <row r="33" spans="1:26">
+      <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>断裁枚数合計</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
         <v>41</v>
       </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
         <v>42</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>26</v>
       </c>
-      <c r="N31">
+      <c r="N33">
         <v>26</v>
       </c>
-      <c r="O31">
+      <c r="O33">
         <v>26</v>
       </c>
-      <c r="P31" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>7</v>
-      </c>
-      <c r="R31" t="s">
-        <v>11</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31" t="s">
-        <v>11</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="P33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>7</v>
+      </c>
+      <c r="R33" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>11</v>
+      </c>
+      <c r="U33" t="s">
         <v>34</v>
       </c>
-      <c r="V31">
+      <c r="V33">
         <v>-1</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W33" t="s">
         <v>12</v>
       </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="str">
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数合計 }</v>
       </c>
-      <c r="Z31" t="str">
+      <c r="Z33" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数合計 = ""</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
-      <c r="A32" t="s">
+    <row r="34" spans="1:26">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>備考</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
         <v>6</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>27</v>
       </c>
-      <c r="M32">
+      <c r="M34">
         <v>27</v>
       </c>
-      <c r="N32">
+      <c r="N34">
         <v>27</v>
       </c>
-      <c r="O32" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>11</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
+      <c r="O34" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>11</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>-1</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V34" t="s">
         <v>16</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="str">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G備考 }</v>
       </c>
-      <c r="Z32" t="str">
+      <c r="Z34" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G備考 = ""</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:26">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>_x001A_</v>
       </c>

--- a/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
+++ b/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\05_用紙出庫伝票\tbx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A16895B-22DF-4EBE-9E7D-C6AC2E947686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08566653-B65D-404A-BED5-C84FFD1A90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tbx項目" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="66">
   <si>
     <t>###</t>
   </si>
@@ -254,6 +254,47 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ブスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引用呼び出し</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行訂正</t>
+    <rPh sb="0" eb="3">
+      <t>ギョウテイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迄時間</t>
+    <rPh sb="0" eb="1">
+      <t>マデ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断裁不要</t>
+    <rPh sb="0" eb="4">
+      <t>ダンサイフヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -278,12 +319,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -298,8 +345,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -580,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="W7" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -592,9 +640,10 @@
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="25" max="25" width="37.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="47.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +653,14 @@
       <c r="Z1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -616,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -624,7 +679,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -676,13 +731,21 @@
         <f>"&amp;G"&amp;B4&amp;" = """""</f>
         <v>&amp;G発注ID = ""</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="str">
+        <f>"&amp;G"&amp;B4&amp;" = ["&amp;A4&amp;"]"</f>
+        <v>&amp;G発注ID = [発注ID]</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>"["&amp;A4&amp;"] = &amp;G"&amp;B4</f>
+        <v>[発注ID] = &amp;G発注ID</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B35" si="0">A5</f>
+        <f t="shared" ref="B5:B37" si="0">A5</f>
         <v>発注日</v>
       </c>
       <c r="C5" t="s">
@@ -749,15 +812,23 @@
         <v>0</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" ref="Y5:Y34" si="1">"var "&amp;C5&amp;"  { &amp;G"&amp;B5&amp;" }"</f>
+        <f t="shared" ref="Y5:Y36" si="1">"var "&amp;C5&amp;"  { &amp;G"&amp;B5&amp;" }"</f>
         <v>var 日時  { &amp;G発注日 }</v>
       </c>
       <c r="Z5" t="str">
-        <f t="shared" ref="Z5:Z34" si="2">"&amp;G"&amp;B5&amp;" = """""</f>
+        <f t="shared" ref="Z5:Z36" si="2">"&amp;G"&amp;B5&amp;" = """""</f>
         <v>&amp;G発注日 = ""</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="str">
+        <f t="shared" ref="AA5:AA36" si="3">"&amp;G"&amp;B5&amp;" = ["&amp;A5&amp;"]"</f>
+        <v>&amp;G発注日 = [発注日]</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" ref="AB5:AB36" si="4">"["&amp;A5&amp;"] = &amp;G"&amp;B5</f>
+        <v>[発注日] = &amp;G発注日</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -836,8 +907,16 @@
         <f t="shared" si="2"/>
         <v>&amp;G担当者ID = ""</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G担当者ID = [担当者ID]</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="4"/>
+        <v>[担当者ID] = &amp;G担当者ID</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -916,8 +995,16 @@
         <f t="shared" si="2"/>
         <v>&amp;G担当者名 = ""</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G担当者名 = [担当者名]</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="4"/>
+        <v>[担当者名] = &amp;G担当者名</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -996,8 +1083,16 @@
         <f t="shared" si="2"/>
         <v>&amp;G伝票ID = ""</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G伝票ID = [伝票ID]</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="4"/>
+        <v>[伝票ID] = &amp;G伝票ID</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1076,8 +1171,16 @@
         <f t="shared" si="2"/>
         <v>&amp;G前回ID = ""</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G前回ID = [前回ID]</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="4"/>
+        <v>[前回ID] = &amp;G前回ID</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1156,8 +1259,16 @@
         <f t="shared" si="2"/>
         <v>&amp;G得意先 = ""</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G得意先 = [得意先]</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="4"/>
+        <v>[得意先] = &amp;G得意先</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1236,8 +1347,16 @@
         <f t="shared" si="2"/>
         <v>&amp;G品名 = ""</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G品名 = [品名]</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="4"/>
+        <v>[品名] = &amp;G品名</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1256,8 +1375,16 @@
         <f t="shared" si="2"/>
         <v>&amp;G伝票部数 = ""</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G伝票部数 = [伝票部数]</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="4"/>
+        <v>[伝票部数] = &amp;G伝票部数</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1276,8 +1403,16 @@
         <f t="shared" si="2"/>
         <v>&amp;G伝票サイズ = ""</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G伝票サイズ = [伝票サイズ]</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="4"/>
+        <v>[伝票サイズ] = &amp;G伝票サイズ</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1356,1549 +1491,1772 @@
         <f t="shared" si="2"/>
         <v>&amp;G作業日 = ""</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" t="s">
+      <c r="AA14" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G作業日 = [作業日]</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="4"/>
+        <v>[作業日] = &amp;G作業日</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>迄時間</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>var 文字列  { &amp;G迄時間 }</v>
+      </c>
+      <c r="Z15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp;G迄時間 = ""</v>
+      </c>
+      <c r="AA15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G迄時間 = [迄時間]</v>
+      </c>
+      <c r="AB15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>[迄時間] = &amp;G迄時間</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>機械名</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>4</v>
       </c>
-      <c r="F15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
         <v>6</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>9</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>9</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>9</v>
       </c>
-      <c r="O15" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15">
+      <c r="Q16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16">
         <v>37</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
         <v>16</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="str">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G機械名 }</v>
       </c>
-      <c r="Z15" t="str">
+      <c r="Z16" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G機械名 = ""</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s">
+      <c r="AA16" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G機械名 = [機械名]</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="4"/>
+        <v>[機械名] = &amp;G機械名</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
         <v>6</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16">
-        <v>10</v>
-      </c>
-      <c r="N16">
-        <v>10</v>
-      </c>
-      <c r="O16" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>10</v>
+      </c>
+      <c r="O17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" t="s">
         <v>7</v>
       </c>
-      <c r="Q16" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16">
+      <c r="Q17" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17">
         <v>37</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
         <v>16</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="str">
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;Gロス要因1顧客 }</v>
-      </c>
-      <c r="Z16" t="str">
+        <v>var 数値  { &amp;Gロス要因1顧客 }</v>
+      </c>
+      <c r="Z17" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gロス要因1顧客 = ""</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" t="s">
+      <c r="AA17" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;Gロス要因1顧客 = [ロス要因1：顧客]</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="4"/>
+        <v>[ロス要因1：顧客] = &amp;Gロス要因1顧客</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="F17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
         <v>6</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>11</v>
-      </c>
-      <c r="M17">
-        <v>11</v>
-      </c>
-      <c r="N17">
-        <v>11</v>
-      </c>
-      <c r="O17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>11</v>
-      </c>
-      <c r="T17">
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18">
         <v>37</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
         <v>16</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="str">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;Gロス要因2自部署 }</v>
-      </c>
-      <c r="Z17" t="str">
+        <v>var 数値  { &amp;Gロス要因2自部署 }</v>
+      </c>
+      <c r="Z18" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gロス要因2自部署 = ""</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" t="s">
+      <c r="AA18" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;Gロス要因2自部署 = [ロス要因2：自部署]</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="4"/>
+        <v>[ロス要因2：自部署] = &amp;Gロス要因2自部署</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
         <v>6</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>12</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>12</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>12</v>
       </c>
-      <c r="O18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="O19" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>11</v>
-      </c>
-      <c r="T18">
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T19">
         <v>37</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
         <v>16</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="str">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;Gロス要因3他部署 }</v>
-      </c>
-      <c r="Z18" t="str">
+        <v>var 数値  { &amp;Gロス要因3他部署 }</v>
+      </c>
+      <c r="Z19" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gロス要因3他部署 = ""</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" t="s">
+      <c r="AA19" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;Gロス要因3他部署 = [ロス要因3：他部署]</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="4"/>
+        <v>[ロス要因3：他部署] = &amp;Gロス要因3他部署</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
         <v>6</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>13</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>13</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>13</v>
       </c>
-      <c r="O19" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="O20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" t="s">
         <v>7</v>
       </c>
-      <c r="Q19" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19">
+      <c r="Q20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20">
         <v>37</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
         <v>16</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="str">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="str">
         <f t="shared" si="1"/>
-        <v>var 文字列  { &amp;Gロス要因4開発破損 }</v>
-      </c>
-      <c r="Z19" t="str">
+        <v>var 数値  { &amp;Gロス要因4開発破損 }</v>
+      </c>
+      <c r="Z20" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gロス要因4開発破損 = ""</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" t="s">
+      <c r="AA20" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;Gロス要因4開発破損 = [ロス要因4：開発・破損]</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="4"/>
+        <v>[ロス要因4：開発・破損] = &amp;Gロス要因4開発破損</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>用紙ID</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
         <v>6</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>14</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>14</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>14</v>
       </c>
-      <c r="O20" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="O21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>11</v>
-      </c>
-      <c r="T20">
+      <c r="Q21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21">
         <v>34</v>
       </c>
-      <c r="U20">
+      <c r="U21">
         <v>-1</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V21" t="s">
         <v>12</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="str">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G用紙ID }</v>
       </c>
-      <c r="Z20" t="str">
+      <c r="Z21" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G用紙ID = ""</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" t="s">
+      <c r="AA21" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G用紙ID = [用紙ID]</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="4"/>
+        <v>[用紙ID] = &amp;G用紙ID</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>銘柄</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
         <v>6</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>15</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>15</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>15</v>
       </c>
-      <c r="O21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" t="s">
-        <v>11</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>11</v>
-      </c>
-      <c r="T21">
+      <c r="Q22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>11</v>
+      </c>
+      <c r="T22">
         <v>34</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
         <v>16</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="str">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G銘柄 }</v>
       </c>
-      <c r="Z21" t="str">
+      <c r="Z22" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G銘柄 = ""</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" t="s">
+      <c r="AA22" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G銘柄 = [銘柄]</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="4"/>
+        <v>[銘柄] = &amp;G銘柄</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>紙色</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
         <v>6</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>16</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>16</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>16</v>
       </c>
-      <c r="O22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
         <v>7</v>
       </c>
-      <c r="Q22" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
-        <v>11</v>
-      </c>
-      <c r="T22">
+      <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23">
         <v>34</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
         <v>16</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="str">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G紙色 }</v>
       </c>
-      <c r="Z22" t="str">
+      <c r="Z23" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G紙色 = ""</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" t="s">
+      <c r="AA23" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G紙色 = [紙色]</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="4"/>
+        <v>[紙色] = &amp;G紙色</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>サイズ</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="F23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
         <v>6</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>17</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>17</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>17</v>
       </c>
-      <c r="O23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="O24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" t="s">
         <v>7</v>
       </c>
-      <c r="Q23" t="s">
-        <v>11</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>11</v>
-      </c>
-      <c r="T23">
+      <c r="Q24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24">
         <v>34</v>
       </c>
-      <c r="U23">
+      <c r="U24">
         <v>-1</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V24" t="s">
         <v>12</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="str">
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;Gサイズ }</v>
       </c>
-      <c r="Z23" t="str">
+      <c r="Z24" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gサイズ = ""</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" t="s">
+      <c r="AA24" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;Gサイズ = [サイズ]</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="4"/>
+        <v>[サイズ] = &amp;Gサイズ</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>サイズ名</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="Y24" t="str">
+      <c r="Y25" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;Gサイズ名 }</v>
       </c>
-      <c r="Z24" t="str">
+      <c r="Z25" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gサイズ名 = ""</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" t="s">
+      <c r="AA25" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;Gサイズ名 = [サイズ名]</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="4"/>
+        <v>[サイズ名] = &amp;Gサイズ名</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>TY</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
         <v>6</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>18</v>
       </c>
-      <c r="M25">
+      <c r="M26">
         <v>18</v>
       </c>
-      <c r="N25">
+      <c r="N26">
         <v>18</v>
       </c>
-      <c r="O25" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="O26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" t="s">
-        <v>11</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>11</v>
-      </c>
-      <c r="T25">
+      <c r="Q26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26">
         <v>34</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
         <v>16</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="str">
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;GTY }</v>
       </c>
-      <c r="Z25" t="str">
+      <c r="Z26" t="str">
         <f t="shared" si="2"/>
         <v>&amp;GTY = ""</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" t="s">
+      <c r="AA26" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;GTY = [TY]</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="4"/>
+        <v>[TY] = &amp;GTY</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>重さ</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
         <v>6</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>19</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>19</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>19</v>
       </c>
-      <c r="O26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="O27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T26">
+      <c r="Q27" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>11</v>
+      </c>
+      <c r="T27">
         <v>34</v>
       </c>
-      <c r="U26">
+      <c r="U27">
         <v>-1</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V27" t="s">
         <v>12</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="str">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G重さ }</v>
       </c>
-      <c r="Z26" t="str">
+      <c r="Z27" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G重さ = ""</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" t="s">
+      <c r="AA27" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G重さ = [重さ]</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="4"/>
+        <v>[重さ] = &amp;G重さ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ作業ID</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
         <v>6</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>20</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>20</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>20</v>
       </c>
-      <c r="O27" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O28" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>11</v>
-      </c>
-      <c r="T27" t="s">
+      <c r="Q28" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" t="s">
         <v>34</v>
       </c>
-      <c r="U27">
+      <c r="U28">
         <v>-1</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V28" t="s">
         <v>12</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="str">
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁サイズ作業ID }</v>
       </c>
-      <c r="Z27" t="str">
+      <c r="Z28" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ作業ID = ""</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" t="s">
+      <c r="AA28" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G断裁サイズ作業ID = [断裁サイズ作業ID]</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="4"/>
+        <v>[断裁サイズ作業ID] = &amp;G断裁サイズ作業ID</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ名称ID</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
         <v>6</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>21</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>21</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>21</v>
       </c>
-      <c r="O28" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="O29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
         <v>7</v>
       </c>
-      <c r="Q28" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>11</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="Q29" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" t="s">
         <v>34</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>-1</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V29" t="s">
         <v>12</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="str">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁サイズ名称ID }</v>
       </c>
-      <c r="Z28" t="str">
+      <c r="Z29" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ名称ID = ""</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" t="s">
+      <c r="AA29" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G断裁サイズ名称ID = [断裁サイズ名称ID]</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="4"/>
+        <v>[断裁サイズ名称ID] = &amp;G断裁サイズ名称ID</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ名</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
         <v>4</v>
       </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
         <v>6</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>22</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>22</v>
       </c>
-      <c r="N29">
+      <c r="N30">
         <v>22</v>
       </c>
-      <c r="O29" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="O30" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>11</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="Q30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" t="s">
         <v>34</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29" t="s">
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
         <v>16</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="str">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G断裁サイズ名 }</v>
       </c>
-      <c r="Z29" t="str">
+      <c r="Z30" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ名 = ""</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" t="s">
+      <c r="AA30" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G断裁サイズ名 = [断裁サイズ名]</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="4"/>
+        <v>[断裁サイズ名] = &amp;G断裁サイズ名</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>断裁縦横</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
         <v>6</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>23</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>23</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>23</v>
       </c>
-      <c r="O30" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O31" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" t="s">
         <v>7</v>
       </c>
-      <c r="Q30" t="s">
-        <v>11</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="Q31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" t="s">
         <v>34</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
         <v>16</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="str">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G断裁縦横 }</v>
       </c>
-      <c r="Z30" t="str">
+      <c r="Z31" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁縦横 = ""</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" t="s">
+      <c r="AA31" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G断裁縦横 = [断裁縦横]</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="4"/>
+        <v>[断裁縦横] = &amp;G断裁縦横</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
         <v>6</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>24</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>24</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>24</v>
       </c>
-      <c r="O31" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="O32" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" t="s">
         <v>7</v>
       </c>
-      <c r="Q31" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
-        <v>11</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="Q32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>11</v>
+      </c>
+      <c r="T32" t="s">
         <v>34</v>
       </c>
-      <c r="U31">
+      <c r="U32">
         <v>-1</v>
       </c>
-      <c r="V31" t="s">
+      <c r="V32" t="s">
         <v>12</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="str">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数定数 }</v>
       </c>
-      <c r="Z31" t="str">
+      <c r="Z32" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数定数 = ""</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" t="s">
+      <c r="AA32" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G断裁枚数定数 = [断裁枚数（定数）]</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="4"/>
+        <v>[断裁枚数（定数）] = &amp;G断裁枚数定数</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
         <v>4</v>
       </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
         <v>6</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>25</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>25</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>25</v>
       </c>
-      <c r="O32" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="O33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" t="s">
         <v>7</v>
       </c>
-      <c r="Q32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>11</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="Q33" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>11</v>
+      </c>
+      <c r="T33" t="s">
         <v>34</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>-1</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V33" t="s">
         <v>12</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="str">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数予備 }</v>
       </c>
-      <c r="Z32" t="str">
+      <c r="Z33" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数予備 = ""</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" t="s">
+      <c r="AA33" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G断裁枚数予備 = [断裁枚数（予備）]</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="4"/>
+        <v>[断裁枚数（予備）] = &amp;G断裁枚数予備</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>断裁枚数合計</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>4</v>
       </c>
-      <c r="G33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
         <v>42</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>26</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>26</v>
       </c>
-      <c r="O33">
+      <c r="O34">
         <v>26</v>
       </c>
-      <c r="P33" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" t="s">
+      <c r="P34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="s">
         <v>7</v>
       </c>
-      <c r="R33" t="s">
-        <v>11</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33" t="s">
-        <v>11</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="R34" t="s">
+        <v>11</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>11</v>
+      </c>
+      <c r="U34" t="s">
         <v>34</v>
       </c>
-      <c r="V33">
+      <c r="V34">
         <v>-1</v>
       </c>
-      <c r="W33" t="s">
+      <c r="W34" t="s">
         <v>12</v>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="str">
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数合計 }</v>
       </c>
-      <c r="Z33" t="str">
+      <c r="Z34" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数合計 = ""</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
-      <c r="A34" t="s">
+      <c r="AA34" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G断裁枚数合計 = [断裁枚数合計]</v>
+      </c>
+      <c r="AB34" t="str">
+        <f t="shared" si="4"/>
+        <v>[断裁枚数合計] = &amp;G断裁枚数合計</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="1" customFormat="1">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>var 文字列  { &amp;G断裁不要 }</v>
+      </c>
+      <c r="Z35" s="1" t="str">
+        <f t="shared" ref="Z35" si="5">"&amp;G"&amp;B35&amp;" = """""</f>
+        <v>&amp;G断裁不要 = ""</v>
+      </c>
+      <c r="AA35" s="1" t="str">
+        <f t="shared" ref="AA35" si="6">"&amp;G"&amp;B35&amp;" = ["&amp;A35&amp;"]"</f>
+        <v>&amp;G断裁不要 = [断裁不要]</v>
+      </c>
+      <c r="AB35" s="1" t="str">
+        <f t="shared" ref="AB35" si="7">"["&amp;A35&amp;"] = &amp;G"&amp;B35</f>
+        <v>[断裁不要] = &amp;G断裁不要</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>備考</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>2</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
         <v>4</v>
       </c>
-      <c r="F34" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
         <v>6</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>27</v>
       </c>
-      <c r="M34">
+      <c r="M36">
         <v>27</v>
       </c>
-      <c r="N34">
+      <c r="N36">
         <v>27</v>
       </c>
-      <c r="O34" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="O36" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" t="s">
         <v>7</v>
       </c>
-      <c r="Q34" t="s">
-        <v>11</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34" t="s">
-        <v>11</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
+      <c r="Q36" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="s">
+        <v>11</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <v>-1</v>
       </c>
-      <c r="V34" t="s">
+      <c r="V36" t="s">
         <v>16</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="str">
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G備考 }</v>
       </c>
-      <c r="Z34" t="str">
+      <c r="Z36" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G備考 = ""</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
-      <c r="A35" t="s">
+      <c r="AA36" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;G備考 = [備考]</v>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="4"/>
+        <v>[備考] = &amp;G備考</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>_x001A_</v>
       </c>

--- a/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
+++ b/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\05_用紙出庫伝票\tbx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08566653-B65D-404A-BED5-C84FFD1A90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8217FB71-71F6-4C1A-91AA-203A1048D22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="120" windowWidth="28500" windowHeight="6900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tbx項目" sheetId="1" r:id="rId1"/>
+    <sheet name="フォーム一覧幅サイズ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -630,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W7" workbookViewId="0">
+    <sheetView topLeftCell="W7" workbookViewId="0">
       <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
@@ -3266,4 +3267,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8110D5BD-808B-4E03-9E3C-AE483B8FEDEB}">
+  <dimension ref="B2:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <f>B2+B3</f>
+        <v>98</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:U2" si="0">C2+C3</f>
+        <v>120</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>361</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>607</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>663</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>721</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>179</v>
+      </c>
+      <c r="E3">
+        <v>62</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>140</v>
+      </c>
+      <c r="I3">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>58</v>
+      </c>
+      <c r="L3">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
+++ b/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\05_用紙出庫伝票\tbx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8217FB71-71F6-4C1A-91AA-203A1048D22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B97215E-5790-4DE1-BD7D-784198BA6EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="120" windowWidth="28500" windowHeight="6900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tbx項目" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="69">
   <si>
     <t>###</t>
   </si>
@@ -296,6 +296,30 @@
     <t>断裁不要</t>
     <rPh sb="0" eb="4">
       <t>ダンサイフヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ名称ID</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ作業ID</t>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断裁備考</t>
+    <rPh sb="0" eb="2">
+      <t>ダンサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -320,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +354,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,9 +376,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -629,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AB39"/>
   <sheetViews>
-    <sheetView topLeftCell="W7" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="U25" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -746,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B37" si="0">A5</f>
+        <f t="shared" ref="B5:B39" si="0">A5</f>
         <v>発注日</v>
       </c>
       <c r="C5" t="s">
@@ -813,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" ref="Y5:Y36" si="1">"var "&amp;C5&amp;"  { &amp;G"&amp;B5&amp;" }"</f>
+        <f t="shared" ref="Y5:Y38" si="1">"var "&amp;C5&amp;"  { &amp;G"&amp;B5&amp;" }"</f>
         <v>var 日時  { &amp;G発注日 }</v>
       </c>
       <c r="Z5" t="str">
-        <f t="shared" ref="Z5:Z36" si="2">"&amp;G"&amp;B5&amp;" = """""</f>
+        <f t="shared" ref="Z5:Z38" si="2">"&amp;G"&amp;B5&amp;" = """""</f>
         <v>&amp;G発注日 = ""</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5:AA36" si="3">"&amp;G"&amp;B5&amp;" = ["&amp;A5&amp;"]"</f>
+        <f t="shared" ref="AA5:AA38" si="3">"&amp;G"&amp;B5&amp;" = ["&amp;A5&amp;"]"</f>
         <v>&amp;G発注日 = [発注日]</v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" ref="AB5:AB36" si="4">"["&amp;A5&amp;"] = &amp;G"&amp;B5</f>
+        <f t="shared" ref="AB5:AB38" si="4">"["&amp;A5&amp;"] = &amp;G"&amp;B5</f>
         <v>[発注日] = &amp;G発注日</v>
       </c>
     </row>
@@ -2230,1034 +2261,1148 @@
       </c>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>サイズ</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <v>17</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <v>17</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="2">
         <v>17</v>
       </c>
-      <c r="O24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="O24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q24" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>11</v>
-      </c>
-      <c r="T24">
+      <c r="Q24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24" s="2">
         <v>34</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="2">
         <v>-1</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="1"/>
-        <v>var 数値  { &amp;Gサイズ }</v>
-      </c>
-      <c r="Z24" t="str">
-        <f t="shared" si="2"/>
-        <v>&amp;Gサイズ = ""</v>
-      </c>
-      <c r="AA24" t="str">
-        <f t="shared" si="3"/>
-        <v>&amp;Gサイズ = [サイズ]</v>
-      </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="4"/>
-        <v>[サイズ] = &amp;Gサイズ</v>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2" t="str">
+        <f t="shared" ref="Y24" si="5">"var "&amp;C24&amp;"  { &amp;G"&amp;B24&amp;" }"</f>
+        <v>var 数値  { &amp;Gサイズ作業ID }</v>
+      </c>
+      <c r="Z24" s="2" t="str">
+        <f t="shared" ref="Z24" si="6">"&amp;G"&amp;B24&amp;" = """""</f>
+        <v>&amp;Gサイズ作業ID = ""</v>
+      </c>
+      <c r="AA24" s="2" t="str">
+        <f t="shared" ref="AA24" si="7">"&amp;G"&amp;B24&amp;" = ["&amp;A24&amp;"]"</f>
+        <v>&amp;Gサイズ作業ID = [サイズ作業ID]</v>
+      </c>
+      <c r="AB24" s="2" t="str">
+        <f t="shared" ref="AB24" si="8">"["&amp;A24&amp;"] = &amp;G"&amp;B24</f>
+        <v>[サイズ作業ID] = &amp;Gサイズ作業ID</v>
       </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>17</v>
+      </c>
+      <c r="M25">
+        <v>17</v>
+      </c>
+      <c r="N25">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>11</v>
+      </c>
+      <c r="T25">
+        <v>34</v>
+      </c>
+      <c r="U25">
+        <v>-1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="1"/>
+        <v>var 数値  { &amp;Gサイズ名称ID }</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="2"/>
+        <v>&amp;Gサイズ名称ID = ""</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="3"/>
+        <v>&amp;Gサイズ名称ID = [サイズ]</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="4"/>
+        <v>[サイズ] = &amp;Gサイズ名称ID</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>サイズ名</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="Y25" t="str">
+      <c r="Y26" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;Gサイズ名 }</v>
       </c>
-      <c r="Z25" t="str">
+      <c r="Z26" t="str">
         <f t="shared" si="2"/>
         <v>&amp;Gサイズ名 = ""</v>
       </c>
-      <c r="AA25" t="str">
+      <c r="AA26" t="str">
         <f t="shared" si="3"/>
         <v>&amp;Gサイズ名 = [サイズ名]</v>
       </c>
-      <c r="AB25" t="str">
+      <c r="AB26" t="str">
         <f t="shared" si="4"/>
         <v>[サイズ名] = &amp;Gサイズ名</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
-      <c r="A26" t="s">
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>TY</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>4</v>
       </c>
-      <c r="F26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
         <v>6</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>18</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>18</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>18</v>
       </c>
-      <c r="O26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="O27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T26">
+      <c r="Q27" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>11</v>
+      </c>
+      <c r="T27">
         <v>34</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
         <v>16</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="str">
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;GTY }</v>
       </c>
-      <c r="Z26" t="str">
+      <c r="Z27" t="str">
         <f t="shared" si="2"/>
         <v>&amp;GTY = ""</v>
       </c>
-      <c r="AA26" t="str">
+      <c r="AA27" t="str">
         <f t="shared" si="3"/>
         <v>&amp;GTY = [TY]</v>
       </c>
-      <c r="AB26" t="str">
+      <c r="AB27" t="str">
         <f t="shared" si="4"/>
         <v>[TY] = &amp;GTY</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
-      <c r="A27" t="s">
+    <row r="28" spans="1:28">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>重さ</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
         <v>6</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>19</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>19</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>19</v>
       </c>
-      <c r="O27" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O28" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27" t="s">
-        <v>11</v>
-      </c>
-      <c r="T27">
+      <c r="Q28" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28">
         <v>34</v>
       </c>
-      <c r="U27">
+      <c r="U28">
         <v>-1</v>
       </c>
-      <c r="V27" t="s">
+      <c r="V28" t="s">
         <v>12</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="str">
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G重さ }</v>
       </c>
-      <c r="Z27" t="str">
+      <c r="Z28" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G重さ = ""</v>
       </c>
-      <c r="AA27" t="str">
+      <c r="AA28" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G重さ = [重さ]</v>
       </c>
-      <c r="AB27" t="str">
+      <c r="AB28" t="str">
         <f t="shared" si="4"/>
         <v>[重さ] = &amp;G重さ</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
-      <c r="A28" t="s">
+    <row r="29" spans="1:28">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ作業ID</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
-        <v>5</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
         <v>6</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>20</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>20</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>20</v>
       </c>
-      <c r="O28" t="s">
-        <v>10</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="O29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
         <v>7</v>
       </c>
-      <c r="Q28" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>11</v>
-      </c>
-      <c r="T28" t="s">
+      <c r="Q29" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" t="s">
         <v>34</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>-1</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V29" t="s">
         <v>12</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="str">
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁サイズ作業ID }</v>
       </c>
-      <c r="Z28" t="str">
+      <c r="Z29" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ作業ID = ""</v>
       </c>
-      <c r="AA28" t="str">
+      <c r="AA29" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G断裁サイズ作業ID = [断裁サイズ作業ID]</v>
       </c>
-      <c r="AB28" t="str">
+      <c r="AB29" t="str">
         <f t="shared" si="4"/>
         <v>[断裁サイズ作業ID] = &amp;G断裁サイズ作業ID</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
-      <c r="A29" t="s">
+    <row r="30" spans="1:28">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ名称ID</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
         <v>4</v>
       </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
         <v>6</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>21</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>21</v>
       </c>
-      <c r="N29">
+      <c r="N30">
         <v>21</v>
       </c>
-      <c r="O29" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="O30" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" t="s">
         <v>7</v>
       </c>
-      <c r="Q29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>11</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="Q30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" t="s">
         <v>34</v>
       </c>
-      <c r="U29">
+      <c r="U30">
         <v>-1</v>
       </c>
-      <c r="V29" t="s">
+      <c r="V30" t="s">
         <v>12</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="str">
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁サイズ名称ID }</v>
       </c>
-      <c r="Z29" t="str">
+      <c r="Z30" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ名称ID = ""</v>
       </c>
-      <c r="AA29" t="str">
+      <c r="AA30" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G断裁サイズ名称ID = [断裁サイズ名称ID]</v>
       </c>
-      <c r="AB29" t="str">
+      <c r="AB30" t="str">
         <f t="shared" si="4"/>
         <v>[断裁サイズ名称ID] = &amp;G断裁サイズ名称ID</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
-      <c r="A30" t="s">
+    <row r="31" spans="1:28">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>断裁サイズ名</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
         <v>6</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>22</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>22</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>22</v>
       </c>
-      <c r="O30" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O31" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" t="s">
         <v>7</v>
       </c>
-      <c r="Q30" t="s">
-        <v>11</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="Q31" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" t="s">
         <v>34</v>
       </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
         <v>16</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="str">
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G断裁サイズ名 }</v>
       </c>
-      <c r="Z30" t="str">
+      <c r="Z31" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁サイズ名 = ""</v>
       </c>
-      <c r="AA30" t="str">
+      <c r="AA31" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G断裁サイズ名 = [断裁サイズ名]</v>
       </c>
-      <c r="AB30" t="str">
+      <c r="AB31" t="str">
         <f t="shared" si="4"/>
         <v>[断裁サイズ名] = &amp;G断裁サイズ名</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
-      <c r="A31" t="s">
+    <row r="32" spans="1:28">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>断裁縦横</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>2</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
         <v>6</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>23</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>23</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>23</v>
       </c>
-      <c r="O31" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="O32" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" t="s">
         <v>7</v>
       </c>
-      <c r="Q31" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
-        <v>11</v>
-      </c>
-      <c r="T31" t="s">
+      <c r="Q32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>11</v>
+      </c>
+      <c r="T32" t="s">
         <v>34</v>
       </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31" t="s">
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
         <v>16</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="str">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G断裁縦横 }</v>
       </c>
-      <c r="Z31" t="str">
+      <c r="Z32" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁縦横 = ""</v>
       </c>
-      <c r="AA31" t="str">
+      <c r="AA32" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G断裁縦横 = [断裁縦横]</v>
       </c>
-      <c r="AB31" t="str">
+      <c r="AB32" t="str">
         <f t="shared" si="4"/>
         <v>[断裁縦横] = &amp;G断裁縦横</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
-      <c r="A32" t="s">
+    <row r="33" spans="1:28">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
         <v>4</v>
       </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
         <v>6</v>
       </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>24</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>24</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>24</v>
       </c>
-      <c r="O32" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="O33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" t="s">
         <v>7</v>
       </c>
-      <c r="Q32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32" t="s">
-        <v>11</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="Q33" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>11</v>
+      </c>
+      <c r="T33" t="s">
         <v>34</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>-1</v>
       </c>
-      <c r="V32" t="s">
+      <c r="V33" t="s">
         <v>12</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="str">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数定数 }</v>
       </c>
-      <c r="Z32" t="str">
+      <c r="Z33" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数定数 = ""</v>
       </c>
-      <c r="AA32" t="str">
+      <c r="AA33" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G断裁枚数定数 = [断裁枚数（定数）]</v>
       </c>
-      <c r="AB32" t="str">
+      <c r="AB33" t="str">
         <f t="shared" si="4"/>
         <v>[断裁枚数（定数）] = &amp;G断裁枚数定数</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
-      <c r="A33" t="s">
+    <row r="34" spans="1:28">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
         <v>6</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
         <v>25</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <v>25</v>
       </c>
-      <c r="N33">
+      <c r="N34">
         <v>25</v>
       </c>
-      <c r="O33" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="O34" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" t="s">
-        <v>11</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33" t="s">
-        <v>11</v>
-      </c>
-      <c r="T33" t="s">
+      <c r="Q34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>11</v>
+      </c>
+      <c r="T34" t="s">
         <v>34</v>
       </c>
-      <c r="U33">
+      <c r="U34">
         <v>-1</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V34" t="s">
         <v>12</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="str">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数予備 }</v>
       </c>
-      <c r="Z33" t="str">
+      <c r="Z34" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数予備 = ""</v>
       </c>
-      <c r="AA33" t="str">
+      <c r="AA34" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G断裁枚数予備 = [断裁枚数（予備）]</v>
       </c>
-      <c r="AB33" t="str">
+      <c r="AB34" t="str">
         <f t="shared" si="4"/>
         <v>[断裁枚数（予備）] = &amp;G断裁枚数予備</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
-      <c r="A34" t="s">
+    <row r="35" spans="1:28">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>断裁枚数合計</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>41</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="G34" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
         <v>42</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>26</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <v>26</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>26</v>
       </c>
-      <c r="P34" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q34" t="s">
+      <c r="P35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="s">
         <v>7</v>
       </c>
-      <c r="R34" t="s">
-        <v>11</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34" t="s">
-        <v>11</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="R35" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>11</v>
+      </c>
+      <c r="U35" t="s">
         <v>34</v>
       </c>
-      <c r="V34">
+      <c r="V35">
         <v>-1</v>
       </c>
-      <c r="W34" t="s">
+      <c r="W35" t="s">
         <v>12</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="str">
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="str">
         <f t="shared" si="1"/>
         <v>var 数値  { &amp;G断裁枚数合計 }</v>
       </c>
-      <c r="Z34" t="str">
+      <c r="Z35" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G断裁枚数合計 = ""</v>
       </c>
-      <c r="AA34" t="str">
+      <c r="AA35" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G断裁枚数合計 = [断裁枚数合計]</v>
       </c>
-      <c r="AB34" t="str">
+      <c r="AB35" t="str">
         <f t="shared" si="4"/>
         <v>[断裁枚数合計] = &amp;G断裁枚数合計</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:28" s="1" customFormat="1">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y35" s="1" t="str">
+      <c r="Y36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G断裁不要 }</v>
       </c>
-      <c r="Z35" s="1" t="str">
-        <f t="shared" ref="Z35" si="5">"&amp;G"&amp;B35&amp;" = """""</f>
+      <c r="Z36" s="1" t="str">
+        <f t="shared" ref="Z36" si="9">"&amp;G"&amp;B36&amp;" = """""</f>
         <v>&amp;G断裁不要 = ""</v>
       </c>
-      <c r="AA35" s="1" t="str">
-        <f t="shared" ref="AA35" si="6">"&amp;G"&amp;B35&amp;" = ["&amp;A35&amp;"]"</f>
+      <c r="AA36" s="1" t="str">
+        <f t="shared" ref="AA36" si="10">"&amp;G"&amp;B36&amp;" = ["&amp;A36&amp;"]"</f>
         <v>&amp;G断裁不要 = [断裁不要]</v>
       </c>
-      <c r="AB35" s="1" t="str">
-        <f t="shared" ref="AB35" si="7">"["&amp;A35&amp;"] = &amp;G"&amp;B35</f>
+      <c r="AB36" s="1" t="str">
+        <f t="shared" ref="AB36" si="11">"["&amp;A36&amp;"] = &amp;G"&amp;B36</f>
         <v>[断裁不要] = &amp;G断裁不要</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
-      <c r="A36" t="s">
+    <row r="37" spans="1:28" s="1" customFormat="1">
+      <c r="A37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="1" t="str">
+        <f t="shared" ref="Y37" si="12">"var "&amp;C37&amp;"  { &amp;G"&amp;B37&amp;" }"</f>
+        <v>var 文字列  { &amp;G断裁備考 }</v>
+      </c>
+      <c r="Z37" s="1" t="str">
+        <f t="shared" ref="Z37" si="13">"&amp;G"&amp;B37&amp;" = """""</f>
+        <v>&amp;G断裁備考 = ""</v>
+      </c>
+      <c r="AA37" s="1" t="str">
+        <f>"&amp;G"&amp;B37&amp;" = ["&amp;A37&amp;"]"</f>
+        <v>&amp;G断裁備考 = [断裁備考]</v>
+      </c>
+      <c r="AB37" s="1" t="str">
+        <f t="shared" ref="AB37" si="14">"["&amp;A37&amp;"] = &amp;G"&amp;B37</f>
+        <v>[断裁備考] = &amp;G断裁備考</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>備考</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" t="s">
         <v>6</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>27</v>
       </c>
-      <c r="M36">
+      <c r="M38">
         <v>27</v>
       </c>
-      <c r="N36">
+      <c r="N38">
         <v>27</v>
       </c>
-      <c r="O36" t="s">
-        <v>10</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="O38" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" t="s">
         <v>7</v>
       </c>
-      <c r="Q36" t="s">
-        <v>11</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36" t="s">
-        <v>11</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
+      <c r="Q38" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>11</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>-1</v>
       </c>
-      <c r="V36" t="s">
+      <c r="V38" t="s">
         <v>16</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="str">
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G備考 }</v>
       </c>
-      <c r="Z36" t="str">
+      <c r="Z38" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G備考 = ""</v>
       </c>
-      <c r="AA36" t="str">
+      <c r="AA38" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G備考 = [備考]</v>
       </c>
-      <c r="AB36" t="str">
+      <c r="AB38" t="str">
         <f t="shared" si="4"/>
         <v>[備考] = &amp;G備考</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
-      <c r="A37" t="s">
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>_x001A_</v>
       </c>
@@ -3273,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8110D5BD-808B-4E03-9E3C-AE483B8FEDEB}">
   <dimension ref="B2:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:U3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3288,7 +3433,7 @@
         <v>98</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:U2" si="0">C2+C3</f>
+        <f t="shared" ref="D2:M2" si="0">C2+C3</f>
         <v>120</v>
       </c>
       <c r="E2">

--- a/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
+++ b/用紙管理/05_用紙出庫伝票/tbx/用紙出庫伝票_設計図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\用紙管理\05_用紙出庫伝票\tbx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B97215E-5790-4DE1-BD7D-784198BA6EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F48574-FBC9-4EBC-9D95-135C38F26CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="71">
   <si>
     <t>###</t>
   </si>
@@ -323,12 +323,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>備考画像</t>
+    <rPh sb="0" eb="4">
+      <t>ビコウガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&amp;G備考画像 = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +352,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -376,10 +394,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -660,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB39"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U25" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+    <sheetView tabSelected="1" topLeftCell="Q25" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -777,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ref="B5:B39" si="0">A5</f>
+        <f t="shared" ref="B5:B40" si="0">A5</f>
         <v>発注日</v>
       </c>
       <c r="C5" t="s">
@@ -844,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" ref="Y5:Y38" si="1">"var "&amp;C5&amp;"  { &amp;G"&amp;B5&amp;" }"</f>
+        <f t="shared" ref="Y5:Y39" si="1">"var "&amp;C5&amp;"  { &amp;G"&amp;B5&amp;" }"</f>
         <v>var 日時  { &amp;G発注日 }</v>
       </c>
       <c r="Z5" t="str">
-        <f t="shared" ref="Z5:Z38" si="2">"&amp;G"&amp;B5&amp;" = """""</f>
+        <f t="shared" ref="Z5:Z39" si="2">"&amp;G"&amp;B5&amp;" = """""</f>
         <v>&amp;G発注日 = ""</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5:AA38" si="3">"&amp;G"&amp;B5&amp;" = ["&amp;A5&amp;"]"</f>
+        <f t="shared" ref="AA5:AA39" si="3">"&amp;G"&amp;B5&amp;" = ["&amp;A5&amp;"]"</f>
         <v>&amp;G発注日 = [発注日]</v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" ref="AB5:AB38" si="4">"["&amp;A5&amp;"] = &amp;G"&amp;B5</f>
+        <f t="shared" ref="AB5:AB39" si="4">"["&amp;A5&amp;"] = &amp;G"&amp;B5</f>
         <v>[発注日] = &amp;G発注日</v>
       </c>
     </row>
@@ -3294,7 +3313,7 @@
         <v>2</v>
       </c>
       <c r="Y37" s="1" t="str">
-        <f t="shared" ref="Y37" si="12">"var "&amp;C37&amp;"  { &amp;G"&amp;B37&amp;" }"</f>
+        <f t="shared" ref="Y37:Y38" si="12">"var "&amp;C37&amp;"  { &amp;G"&amp;B37&amp;" }"</f>
         <v>var 文字列  { &amp;G断裁備考 }</v>
       </c>
       <c r="Z37" s="1" t="str">
@@ -3310,99 +3329,125 @@
         <v>[断裁備考] = &amp;G断裁備考</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
-      <c r="A38" t="s">
+    <row r="38" spans="1:28" s="1" customFormat="1">
+      <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y38" s="1" t="str">
+        <f t="shared" ref="Y38" si="15">"var "&amp;C38&amp;"  { &amp;G"&amp;B38&amp;" }"</f>
+        <v>var 数値  { &amp;G備考画像 }</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA38" s="1" t="str">
+        <f>"&amp;G"&amp;B38&amp;" = ["&amp;A38&amp;"]"</f>
+        <v>&amp;G備考画像 = [備考画像]</v>
+      </c>
+      <c r="AB38" s="1" t="str">
+        <f t="shared" ref="AB38" si="16">"["&amp;A38&amp;"] = &amp;G"&amp;B38</f>
+        <v>[備考画像] = &amp;G備考画像</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>備考</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
         <v>4</v>
       </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" t="s">
         <v>6</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>27</v>
       </c>
-      <c r="M38">
+      <c r="M39">
         <v>27</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>27</v>
       </c>
-      <c r="O38" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="O39" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" t="s">
         <v>7</v>
       </c>
-      <c r="Q38" t="s">
-        <v>11</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38" t="s">
-        <v>11</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
+      <c r="Q39" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>-1</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V39" t="s">
         <v>16</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="str">
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="str">
         <f t="shared" si="1"/>
         <v>var 文字列  { &amp;G備考 }</v>
       </c>
-      <c r="Z38" t="str">
+      <c r="Z39" t="str">
         <f t="shared" si="2"/>
         <v>&amp;G備考 = ""</v>
       </c>
-      <c r="AA38" t="str">
+      <c r="AA39" t="str">
         <f t="shared" si="3"/>
         <v>&amp;G備考 = [備考]</v>
       </c>
-      <c r="AB38" t="str">
+      <c r="AB39" t="str">
         <f t="shared" si="4"/>
         <v>[備考] = &amp;G備考</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
-      <c r="A39" t="s">
+    <row r="40" spans="1:28">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>_x001A_</v>
       </c>
